--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-14.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -540,47 +540,47 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TA&amp;M@TENN</t>
+          <t>ALA@MSST</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -601,32 +601,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Labaron Philon Jr.</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ALA@MSST</t>
+          <t>TA&amp;M@TENN</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -635,13 +635,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -677,17 +677,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
         <v>4</v>
       </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -784,47 +784,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ja'Kobi Gillespie</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TA&amp;M@TENN</t>
+          <t>FLA@OU</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -845,47 +845,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>FLA@OU</t>
+          <t>TA&amp;M@TENN</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>14</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -982,20 +982,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -1043,20 +1043,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -1104,32 +1104,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -1165,20 +1165,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -1211,38 +1211,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ALA@MSST</t>
+          <t>FLA@OU</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1287,32 +1287,32 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -1323,57 +1323,57 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FLA@OU</t>
+          <t>ALA@MSST</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1389,52 +1389,52 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TA&amp;M@TENN</t>
+          <t>FLA@OU</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I16" t="n">
         <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -1470,32 +1470,32 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -1516,47 +1516,47 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ALA@MSST</t>
+          <t>TA&amp;M@TENN</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -1577,32 +1577,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FLA@OU</t>
+          <t>ALA@MSST</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -1628,42 +1628,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ALA@MSST</t>
+          <t>FLA@OU</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1675,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1694,40 +1694,40 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FLA@OU</t>
+          <t>ALA@MSST</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1760,12 +1760,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1775,32 +1775,32 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
@@ -1836,14 +1836,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1882,47 +1882,47 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>TA&amp;M@TENN</t>
+          <t>FLA@OU</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
         <v>3</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -1933,57 +1933,57 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FLA@OU</t>
+          <t>TA&amp;M@TENN</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>13</v>
+        <v>-4</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O25" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2004,12 +2004,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2019,23 +2019,23 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
@@ -2080,20 +2080,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -2121,37 +2121,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>TA&amp;M@TENN</t>
+          <t>FLA@OU</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>7</v>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
@@ -2160,13 +2160,13 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -2187,47 +2187,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Kuol Atak</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>FLA@OU</t>
+          <t>TA&amp;M@TENN</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
@@ -2238,57 +2238,57 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Kuol Atak</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>TA&amp;M@TENN</t>
+          <t>FLA@OU</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -2324,17 +2324,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -2343,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
@@ -2365,12 +2365,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2389,13 +2389,13 @@
         </is>
       </c>
       <c r="H32" t="n">
+        <v>16</v>
+      </c>
+      <c r="I32" t="n">
         <v>11</v>
       </c>
-      <c r="I32" t="n">
-        <v>15</v>
-      </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -2404,10 +2404,10 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
         <v>39</v>
@@ -2431,35 +2431,35 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ALA@MSST</t>
+          <t>FLA@OU</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -2468,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -2492,35 +2492,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FLA@OU</t>
+          <t>TA&amp;M@TENN</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2553,47 +2553,47 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>TA&amp;M@TENN</t>
+          <t>ALA@MSST</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I35" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -2614,12 +2614,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I36" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J36" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O36" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -2675,12 +2675,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2694,28 +2694,28 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I37" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>3</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>4</v>
-      </c>
       <c r="O37" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
@@ -2736,47 +2736,47 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ALA@MSST</t>
+          <t>TA&amp;M@TENN</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I38" t="n">
+        <v>16</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4</v>
+      </c>
+      <c r="L38" t="n">
         <v>3</v>
       </c>
-      <c r="J38" t="n">
-        <v>3</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O38" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -2797,47 +2797,47 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>TA&amp;M@TENN</t>
+          <t>FLA@OU</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2873,32 +2873,32 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -2919,47 +2919,47 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>FLA@OU</t>
+          <t>ALA@MSST</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Troy Henderson</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2999,19 +2999,19 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3056,32 +3056,32 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
         <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -3102,12 +3102,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3117,17 +3117,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -3136,13 +3136,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Amaree Abram</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3182,16 +3182,16 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -3224,32 +3224,32 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Amier Ali</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>TA&amp;M@TENN</t>
+          <t>ALA@MSST</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -3285,38 +3285,38 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>TA&amp;M@TENN</t>
+          <t>FLA@OU</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>CJ Ingram</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3361,20 +3361,20 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3422,32 +3422,32 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
+        <v>6</v>
+      </c>
+      <c r="J49" t="n">
         <v>3</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O49" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3487,10 +3487,10 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3548,13 +3548,13 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -3651,38 +3651,38 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TA&amp;M@TENN</t>
+          <t>ALA@MSST</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -3712,35 +3712,35 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>FLA@OU</t>
+          <t>ALA@MSST</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -3773,32 +3773,32 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Dellquan Warren</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ALA@MSST</t>
+          <t>TA&amp;M@TENN</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -3834,26 +3834,26 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Kai Rogers</t>
+          <t>Brandon Walker</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>FLA@OU</t>
+          <t>ALA@MSST</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>18:10 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3871,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3895,46 +3895,595 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>TA&amp;M@TENN</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Final/2OT</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Josh Holloway</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>TA&amp;M@TENN</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Final/2OT</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Preston Murphy Jr.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>ALA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>ALA@MSST</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Halftime</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Zach Clemence</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>TA&amp;M@TENN</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Final/2OT</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Alex Lloyd</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>FLA@OU</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Dayton Forsythe</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>FLA@OU</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Dellquan Warren</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>ALA@MSST</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Jacob Martin</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ALA@MSST</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Noah Shelby</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>TA&amp;M@TENN</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Final/2OT</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Kai Rogers</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>FLA@OU</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3986,7 +4535,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -3995,14 +4544,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4012,7 +4561,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -4021,24 +4570,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -4047,11 +4596,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -4060,11 +4609,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-14.xlsx
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-14.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O122"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -799,23 +799,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -860,17 +860,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -921,17 +921,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>6:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -982,17 +982,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>6:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1455,47 +1455,47 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MISS@UGA</t>
+          <t>UK@LSU</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -1516,32 +1516,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>UK@LSU</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1550,13 +1550,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -1836,20 +1836,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1897,32 +1897,32 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>6:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -1958,32 +1958,32 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>6:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
+        <v>9</v>
+      </c>
+      <c r="I25" t="n">
         <v>5</v>
       </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
       <c r="J25" t="n">
+        <v>7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>7</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
         <v>5</v>
       </c>
-      <c r="K25" t="n">
-        <v>4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2</v>
-      </c>
       <c r="O25" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -2019,20 +2019,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -2041,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -2370,47 +2370,47 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>UK@LSU</t>
+          <t>AUB@MIZ</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>6:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
+        <v>22</v>
+      </c>
+      <c r="I32" t="n">
         <v>13</v>
       </c>
-      <c r="I32" t="n">
-        <v>14</v>
-      </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -2431,47 +2431,47 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>AUB@MIZ</t>
+          <t>UK@LSU</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -2507,11 +2507,11 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>6:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
@@ -2520,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
@@ -2568,14 +2568,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2584,16 +2584,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
@@ -2629,32 +2629,32 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H36" t="n">
+        <v>17</v>
+      </c>
+      <c r="I36" t="n">
+        <v>15</v>
+      </c>
+      <c r="J36" t="n">
         <v>7</v>
       </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2</v>
-      </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3005,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
@@ -3056,11 +3056,11 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="O43" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -3117,11 +3117,11 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I44" t="n">
         <v>3</v>
@@ -3130,7 +3130,7 @@
         <v>6</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
         <v>1</v>
@@ -3142,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -3178,17 +3178,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>6:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -3200,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O45" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
@@ -3544,21 +3544,21 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J51" t="n">
+        <v>5</v>
+      </c>
+      <c r="K51" t="n">
         <v>4</v>
       </c>
-      <c r="K51" t="n">
-        <v>2</v>
-      </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -3605,17 +3605,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -3666,14 +3666,14 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I53" t="n">
         <v>3</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
       </c>
       <c r="J53" t="n">
         <v>4</v>
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -4032,20 +4032,20 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J59" t="n">
         <v>3</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -4054,10 +4054,10 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O59" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
@@ -4078,7 +4078,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4093,23 +4093,23 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>6:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4154,23 +4154,23 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>6:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6106,32 +6106,32 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>6:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I93" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O93" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
@@ -6152,12 +6152,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6167,32 +6167,32 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>6:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I94" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95">
@@ -6213,47 +6213,47 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>UK@LSU</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I95" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96">
@@ -6274,47 +6274,47 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>AUB@MIZ</t>
+          <t>UK@LSU</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I96" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J96" t="n">
         <v>3</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O96" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
@@ -6335,47 +6335,47 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>MISS@UGA</t>
+          <t>AUB@MIZ</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>6:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I97" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -6396,12 +6396,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Andrija Jelavić</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -6411,32 +6411,32 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I98" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
         <v>1</v>
       </c>
       <c r="O98" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
@@ -6457,35 +6457,35 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>MISS@UGA</t>
+          <t>UK@LSU</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="O99" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100">
@@ -6518,12 +6518,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -6533,20 +6533,20 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I100" t="n">
         <v>7</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
@@ -6579,47 +6579,47 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>AUB@MIZ</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I101" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K101" t="n">
         <v>1</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O101" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102">
@@ -6640,12 +6640,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Andrija Jelavić</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -6655,32 +6655,32 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I102" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N102" t="n">
         <v>1</v>
       </c>
       <c r="O102" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103">
@@ -6701,47 +6701,47 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>UK@LSU</t>
+          <t>AUB@MIZ</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>6:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O103" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104">
@@ -6762,12 +6762,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -6777,23 +6777,23 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I104" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="O104" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -6823,12 +6823,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -6838,20 +6838,20 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L105" t="n">
         <v>1</v>
@@ -6863,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="O105" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106">
@@ -6884,47 +6884,47 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>AUB@MIZ</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H106" t="n">
+        <v>7</v>
+      </c>
+      <c r="I106" t="n">
+        <v>5</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
         <v>3</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O106" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
@@ -6945,33 +6945,33 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>MISS@UGA</t>
+          <t>AUB@MIZ</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>6:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
         <v>3</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
       <c r="K107" t="n">
         <v>0</v>
       </c>
@@ -6979,13 +6979,13 @@
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O107" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
@@ -7006,47 +7006,47 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>AUB@MIZ</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
@@ -7067,12 +7067,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -7082,17 +7082,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110">
@@ -7128,32 +7128,32 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>UK@LSU</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H110" t="n">
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -7165,10 +7165,10 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
@@ -7189,22 +7189,22 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>MISS@UGA</t>
+          <t>UK@LSU</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -7214,10 +7214,10 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -7226,10 +7226,10 @@
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O111" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112">
@@ -7250,12 +7250,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -7275,13 +7275,13 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
@@ -7311,22 +7311,22 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Annor Boateng</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>MISS@UGA</t>
+          <t>AUB@MIZ</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>6:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -7345,13 +7345,13 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O113" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
@@ -7372,22 +7372,22 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Mazi Mosley</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>UK@LSU</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -7397,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -7409,10 +7409,10 @@
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -7433,35 +7433,35 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Kam Williams</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>MISS@UGA</t>
+          <t>UK@LSU</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
@@ -7494,12 +7494,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -7509,17 +7509,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -7534,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="O116" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -7555,26 +7555,26 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Mazi Mosley</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>AUB@MIZ</t>
+          <t>UK@LSU</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>7:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="O117" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118">
@@ -7616,12 +7616,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Luke Northweather</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -7631,11 +7631,11 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>6:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -7644,19 +7644,19 @@
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O118" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
@@ -7677,32 +7677,32 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>AUB@MIZ</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>19:18 - 2nd Half</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -7714,10 +7714,10 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120">
@@ -7753,14 +7753,14 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>7:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -7799,26 +7799,26 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Luke Northweather</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>UK@LSU</t>
+          <t>AUB@MIZ</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>6:15 - 2nd Half</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -7839,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="O121" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -7860,47 +7860,108 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Kam Williams</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>AUB@MIZ</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>6:15 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+      <c r="O122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Jasper Johnson</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>UK@LSU</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Halftime</t>
-        </is>
-      </c>
-      <c r="H122" t="n">
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>7:57 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
         <v>-4</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0</v>
-      </c>
-      <c r="M122" t="n">
-        <v>0</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0</v>
-      </c>
-      <c r="O122" t="n">
-        <v>11</v>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -7951,7 +8012,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -7960,40 +8021,40 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -8003,7 +8064,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -8012,14 +8073,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -8029,7 +8090,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-14.xlsx
@@ -657,37 +657,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TA&amp;M@TENN</t>
+          <t>FLA@OU</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Final/2OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -723,32 +723,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FLA@OU</t>
+          <t>TA&amp;M@TENN</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/2OT</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -901,52 +901,52 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Jeremiah Wilkinson</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>VAN@TEX</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -967,47 +967,47 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jeremiah Wilkinson</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MISS@UGA</t>
+          <t>SC@ARK</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I9" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1028,17 +1028,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Billy Richmond III</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SC@ARK</t>
+          <t>UK@LSU</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1047,28 +1047,28 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Pablo Tamba</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>UK@LSU</t>
+          <t>VAN@TEX</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1108,28 +1108,28 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -1638,12 +1638,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I20" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -1821,12 +1821,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1840,28 +1840,28 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I23" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -2004,12 +2004,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2023,28 +2023,28 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J26" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -2060,22 +2060,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ALA@MSST</t>
+          <t>FLA@OU</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2084,13 +2084,13 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
         <v>2</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -2126,17 +2126,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>FLA@OU</t>
+          <t>ALA@MSST</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2145,28 +2145,28 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I28" t="n">
+        <v>6</v>
+      </c>
+      <c r="J28" t="n">
         <v>17</v>
       </c>
-      <c r="J28" t="n">
-        <v>4</v>
-      </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4383,47 +4383,47 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>MISS@UGA</t>
+          <t>UK@LSU</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -4439,52 +4439,52 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>SC@ARK</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="I66" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
         <v>4</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
@@ -4505,47 +4505,47 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>UK@LSU</t>
+          <t>MISS@UGA</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
@@ -4566,47 +4566,47 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>MISS@UGA</t>
+          <t>SC@ARK</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J68" t="n">
         <v>4</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O68" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
@@ -4993,17 +4993,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>UK@LSU</t>
+          <t>SC@ARK</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5012,28 +5012,28 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I75" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N75" t="n">
         <v>2</v>
       </c>
       <c r="O75" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
@@ -5176,17 +5176,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>SC@ARK</t>
+          <t>UK@LSU</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5195,28 +5195,28 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I78" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J78" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
         <v>2</v>
       </c>
       <c r="O78" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79">
@@ -7982,7 +7982,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Andrija Jelavić</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -10631,11 +10631,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -10644,11 +10644,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -10657,7 +10657,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -10670,11 +10670,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -10683,11 +10683,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ron</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -10696,11 +10696,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
@@ -10713,10 +10713,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
